--- a/ObjectOrientedProgramming/WinApp.InventoryWMS/INVENTORY.WinApp/bin/Release/BAOCAO/EXCEL/BM_HangLuuKho.xlsx
+++ b/ObjectOrientedProgramming/WinApp.InventoryWMS/INVENTORY.WinApp/bin/Release/BAOCAO/EXCEL/BM_HangLuuKho.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\MTInventoryTinhBotSan\Code\MTIMS.WinApp\BAOCAO\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\MTWarehouseOOP\INVENTORY.WinApp\BAOCAO\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -49,7 +49,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -182,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,7 +632,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="8"/>
       <c r="G10" s="10"/>
     </row>
@@ -634,7 +641,7 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="8"/>
       <c r="G11" s="10"/>
     </row>
@@ -645,7 +652,7 @@
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="9"/>
       <c r="G12" s="11"/>
     </row>
@@ -666,13 +673,13 @@
     <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
